--- a/simulations/test_results/all_events/significant_events_T_0.1.xlsx
+++ b/simulations/test_results/all_events/significant_events_T_0.1.xlsx
@@ -4,13 +4,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Turbine_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Turbine_2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Turbine_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Turbine_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Turbine_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Turbine_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Turbine_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Turbine_8" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,49 +441,326 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>∆t_m</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>w_m(t1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>w_m(t2)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>∆w_m</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>σ_m</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>θ_m</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.5680000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-70.60218755144177</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2615999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="I3" t="n">
+        <v>81.30651138798179</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.4116</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2758</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-76.34432299351431</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09759999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3784</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2868</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78.06251207594339</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4372</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.3371999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-81.56564147086334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9912000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8912000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5456000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>82.33125278388113</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -489,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,49 +779,326 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>∆t_m</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>w_m(t1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>w_m(t2)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>∆w_m</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>σ_m</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>θ_m</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.4628</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3646</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-78.99513368547254</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52.00126755749535</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-69.86369657175186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1684</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1412</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60.46531322145803</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1688</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1388</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-70.18943062941025</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9804</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9504</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5052</v>
+      </c>
+      <c r="I7" t="n">
+        <v>77.5401494674521</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -550,7 +1108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,101 +1117,242 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>w_m(t1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>w_m(t2)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>∆t_m</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>∆w_m</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>σ_m</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>θ_m</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>24</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.6616</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3512</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0.6844</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.3104</v>
+        <v>0.2004</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0064</v>
+        <v>-0.484</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.398386838513629</v>
-      </c>
+        <v>0.4424</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-81.77048343760511</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>44</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>2.3512</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7224</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0.2088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3712</v>
+        <v>0.4312</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5368</v>
+        <v>0.2224</v>
       </c>
       <c r="H3" t="n">
-        <v>4.245849659511015</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>65.78939627600354</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4312</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3856000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2384</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-71.36913848873969</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9912000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9780000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5022000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77.88123966527482</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -663,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,74 +1371,1257 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>∆w_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>σ_m</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>θ_m</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5564</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2516</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-70.31732901078576</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2248</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3764</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1515999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71.7466536735794</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3124</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1488</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1636</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2306</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-73.00561774289555</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1488</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2268</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72.22867917709125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3048</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1496</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1552</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-62.73052801154194</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9444000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8220000000000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5334000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69.94976312860334</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>t2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>∆w_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>σ_m</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>θ_m</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.7899999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5105999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-77.85572195043299</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4928</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3772</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82.44913943460195</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3492</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-81.85152183521267</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1436</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6124000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4498</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.35779985083502</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.5760000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-77.28175065362657</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9907999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8108</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5853999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>83.66601312514153</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>w_m(t1)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>∆w_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>σ_m</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>θ_m</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0692</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.5616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-57.33908727832619</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="I3" t="n">
+        <v>51.80740019316281</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1636</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1324</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-69.31128202495545</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9532</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4922</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80.75951884273326</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>w_m(t1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>w_m(t2)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>∆w_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>σ_m</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>θ_m</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.008799999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.4472</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2324</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-44.19164757756865</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>63</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8628</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8504</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4376</v>
+      </c>
+      <c r="I3" t="n">
+        <v>76.1287455839929</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_m</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>∆t_m</t>
+          <t>w_m(t1)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>w_m(t2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>∆w_m</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>σ_m</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>θ_m</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆w_m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>λ(θ_m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_m, θ_m)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>44</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0832</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1264</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0.4748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04320000000000002</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1048</v>
+        <v>-0.4196</v>
       </c>
       <c r="H2" t="n">
-        <v>0.495023217476501</v>
-      </c>
+        <v>0.265</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-41.75739251847052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6584</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72.81604878953907</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>